--- a/Copy of shareholding_template.xlsx
+++ b/Copy of shareholding_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jills.Shah\Desktop\CIR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jills.Shah\Desktop\SRG Housing finance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF5740E-32CB-4AAB-85EC-84F5A2EFD09A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EB30D3-857C-4B60-AF75-2DAD9EE7E562}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F0D67E27-1F3D-1F4D-A051-47FAAE5340F2}"/>
   </bookViews>
@@ -16,17 +16,23 @@
     <sheet name="Shareholder" sheetId="1" r:id="rId1"/>
     <sheet name="Instrument" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="35">
   <si>
     <t>Shareholding Date</t>
   </si>
@@ -61,18 +67,6 @@
     <t>Shareholding percent</t>
   </si>
   <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>promoter</t>
-  </si>
-  <si>
-    <t>Possible values (promoter/promoter entity/angel/esop pool/cofounder/PE-VC/other instuition )</t>
-  </si>
-  <si>
-    <t>XYZ</t>
-  </si>
-  <si>
     <t>Possible values( equity/ocps/ccps/ccd/ocd/warrant)</t>
   </si>
   <si>
@@ -82,40 +76,78 @@
     <t>CIN</t>
   </si>
   <si>
-    <t>Kuldeep Halwasiya</t>
-  </si>
-  <si>
-    <t>U74999MH2017PLC297819</t>
-  </si>
-  <si>
-    <t>31.03.2019</t>
-  </si>
-  <si>
     <t>Promoter</t>
   </si>
   <si>
-    <t>Suresh Prasad Chokhani</t>
-  </si>
-  <si>
-    <t>Rohit Chokhani</t>
-  </si>
-  <si>
-    <t>Avantika Chokhani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rachana Chokhani </t>
-  </si>
-  <si>
-    <t>Sanjit Chokhani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simran Halwasiya </t>
+    <t>L65922RJ1999PLC015440</t>
+  </si>
+  <si>
+    <t>Vinod Kumar Jain</t>
+  </si>
+  <si>
+    <t>Rajesh Jain</t>
+  </si>
+  <si>
+    <t>Seema Jain</t>
+  </si>
+  <si>
+    <t>Rajesh Jain HUF</t>
+  </si>
+  <si>
+    <t>Pushpa Jain</t>
+  </si>
+  <si>
+    <t>Vinod Kumar Jain HUF</t>
+  </si>
+  <si>
+    <t>Genda Lal Jain HUF</t>
+  </si>
+  <si>
+    <t>Meenakshi Jain</t>
+  </si>
+  <si>
+    <t>Aarti Prakash Jain</t>
+  </si>
+  <si>
+    <t>Archis Jain</t>
+  </si>
+  <si>
+    <t>Genda Lal Jain</t>
+  </si>
+  <si>
+    <t>Jikisha Jain</t>
+  </si>
+  <si>
+    <t>Ambitious Associates Pvt Ltd</t>
+  </si>
+  <si>
+    <t>SRG Global Solutions Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Rhythm Consultants Pvt Ltd</t>
+  </si>
+  <si>
+    <t>SRG Global Builders Pvt Ltd</t>
+  </si>
+  <si>
+    <t>SRG Securities Finance Ltd</t>
+  </si>
+  <si>
+    <t>Hriday Insurance Consultant Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Public</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -140,10 +172,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -154,7 +187,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -162,12 +195,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -177,10 +222,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{72295832-C8D2-4089-99A0-80E60785195F}"/>
   </cellStyles>
@@ -494,11 +549,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEB12C57-E6FE-DA41-B4FC-8AD1E7A5FDF3}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -514,7 +567,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -538,213 +591,483 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B2">
-        <v>111</v>
-      </c>
-      <c r="C2" s="2">
-        <v>43211</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>112</v>
+      </c>
+      <c r="C3" s="2">
+        <v>43465</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="10">
+        <v>1565119</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="7">
+        <v>12.039376923076924</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>112</v>
+      </c>
+      <c r="C4" s="2">
+        <v>43465</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="10">
+        <v>560721</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="7">
+        <v>4.3132384615384618</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>112</v>
+      </c>
+      <c r="C5" s="2">
+        <v>43465</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="10">
+        <v>543751</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="7">
+        <v>4.1827000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>112</v>
+      </c>
+      <c r="C6" s="2">
+        <v>43465</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="10">
+        <v>204960</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="7">
+        <v>1.5766153846153848</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>112</v>
+      </c>
+      <c r="C7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="10">
+        <v>612381</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="7">
+        <v>4.7106230769230768</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>112</v>
+      </c>
+      <c r="C8" s="2">
+        <v>43465</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="10">
+        <v>557915</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="7">
+        <v>4.2916538461538467</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>112</v>
+      </c>
+      <c r="C9" s="2">
+        <v>43465</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="10">
+        <v>399000</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="7">
+        <v>3.0692307692307694</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>112</v>
+      </c>
+      <c r="C10" s="2">
+        <v>43465</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="10">
+        <v>223965</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="8">
+        <v>1.7228076923076923</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>112</v>
+      </c>
+      <c r="C11" s="2">
+        <v>43465</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="10">
+        <v>202650</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="8">
+        <v>1.558846153846154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>112</v>
+      </c>
+      <c r="C12" s="2">
+        <v>43465</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="10">
+        <v>180000</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="8">
+        <v>1.3846153846153846</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>112</v>
+      </c>
+      <c r="C13" s="2">
+        <v>43465</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="10">
+        <v>168021</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="8">
+        <v>1.2924692307692307</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>112</v>
+      </c>
+      <c r="C14" s="2">
+        <v>43465</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="10">
+        <v>165600</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="H14" s="8">
+        <v>1.2738461538461539</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>112</v>
+      </c>
+      <c r="C15" s="2">
+        <v>43465</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="10">
+        <v>756060</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="8">
+        <v>5.8158461538461541</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>112</v>
+      </c>
+      <c r="C16" s="2">
+        <v>43465</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="10">
+        <v>525000</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="8">
+        <v>4.0384615384615383</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>112</v>
+      </c>
+      <c r="C17" s="2">
+        <v>43465</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="10">
+        <v>465920</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="8">
+        <v>3.5839999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>112</v>
+      </c>
+      <c r="C18" s="2">
+        <v>43465</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="10">
+        <v>226799</v>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="H18" s="8">
+        <v>1.7446076923076921</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>112</v>
+      </c>
+      <c r="C19" s="2">
+        <v>43465</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="10">
+        <v>200000</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="8">
+        <v>1.5384615384615385</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>112</v>
+      </c>
+      <c r="C20" s="2">
+        <v>43465</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="10">
+        <v>52500</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="8">
+        <v>0.40384615384615385</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <v>112</v>
+      </c>
+      <c r="C21" s="2">
+        <v>43465</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="12">
+        <v>5389638</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="8">
+        <v>41.458753846153847</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D22" s="9"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F23" s="13">
+        <f>SUM(F3:F22)</f>
+        <v>13000000</v>
+      </c>
+      <c r="G23" s="13">
+        <f>SUM(G3:G22)</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="13">
+        <f>SUM(H3:H22)</f>
         <v>100</v>
       </c>
-      <c r="G2">
-        <v>1000</v>
-      </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>112</v>
-      </c>
-      <c r="C3" s="2">
-        <v>43211</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3">
-        <v>50</v>
-      </c>
-      <c r="G3">
-        <v>500</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="6">
-        <v>6635000</v>
-      </c>
-      <c r="G5" s="6">
-        <v>6635000</v>
-      </c>
-      <c r="H5" s="6">
-        <v>49.15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="6">
-        <v>6625000</v>
-      </c>
-      <c r="G6" s="6">
-        <v>6625000</v>
-      </c>
-      <c r="H6" s="6">
-        <v>49.07</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="6">
-        <v>31250</v>
-      </c>
-      <c r="G7" s="6">
-        <v>31250</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="6">
-        <v>31250</v>
-      </c>
-      <c r="G8" s="6">
-        <v>31250</v>
-      </c>
-      <c r="H8" s="6">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="6">
-        <v>31250</v>
-      </c>
-      <c r="G9" s="6">
-        <v>31250</v>
-      </c>
-      <c r="H9" s="6">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="6">
-        <v>31250</v>
-      </c>
-      <c r="G10" s="6">
-        <v>31250</v>
-      </c>
-      <c r="H10" s="6">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="6">
-        <v>115000</v>
-      </c>
-      <c r="G11" s="6">
-        <v>115000</v>
-      </c>
-      <c r="H11" s="6">
-        <v>0.85</v>
-      </c>
-    </row>
+    </row>
+    <row r="24" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -756,7 +1079,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -787,7 +1110,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -795,7 +1118,7 @@
         <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>50</v>
